--- a/excel/Controle_IR_2025.xlsx
+++ b/excel/Controle_IR_2025.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvasconcellos\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00147D2D-A83B-4CAF-8512-8C5850512F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71E9AEC-028C-48DF-8BFC-BCEA4DE90E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -463,13 +463,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1308,11 +1308,11 @@
     </row>
     <row r="4" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -1381,7 +1381,7 @@
       <c r="A12" s="13"/>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1393,27 +1393,27 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1502,11 +1502,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7">
@@ -1613,12 +1613,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10"/>
@@ -1632,17 +1632,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1730,11 +1730,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7">
@@ -1841,12 +1841,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10"/>
@@ -1860,17 +1860,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1959,11 +1959,11 @@
     </row>
     <row r="4" spans="1:6" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -2053,7 +2053,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="7">
@@ -2070,12 +2070,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="10"/>
@@ -2089,17 +2089,17 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2190,11 +2190,11 @@
     </row>
     <row r="4" spans="1:7" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -2299,12 +2299,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
       <c r="C14" s="10"/>
@@ -2319,22 +2319,22 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2421,11 +2421,11 @@
     </row>
     <row r="4" spans="1:5" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13"/>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="13"/>
@@ -2497,32 +2497,32 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
     </row>
